--- a/LaporanPerSprint/Kumpulan Laporan Tugas agile [update sprint 1-6].xlsx
+++ b/LaporanPerSprint/Kumpulan Laporan Tugas agile [update sprint 1-6].xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\david kuliah\Semester 4\Perangkat Lunak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\david kuliah\Semester 4\Perangkat Lunak\clone-1\Majalah-Forbes---IF-A-Sore\LaporanPerSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CD660F-53FF-4284-9C41-0237E315190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7B49C0-D421-4F4F-9D70-CA2315A7B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12456" yWindow="0" windowWidth="10680" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL-Tugas" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="295">
   <si>
     <t>AS A …</t>
   </si>
@@ -901,24 +901,6 @@
     <t>***Sprint 10***</t>
   </si>
   <si>
-    <t>Mendesain Fitur HomePage artikel dengan menggunakan Flutter</t>
-  </si>
-  <si>
-    <t>Mendesain prototype Fitur MenuSidebar pada homepage dengan menggunakan Flutter</t>
-  </si>
-  <si>
-    <t>Mendesain prototype Fitur TopikPage dengan menggunakan Flutter</t>
-  </si>
-  <si>
-    <t>Mendesain Fitur tabsbar kategori berita dihomepage dengan menggunakan prototype Flutter</t>
-  </si>
-  <si>
-    <t>Mendesain fitur search di homepage dengan menggunakan Flutter</t>
-  </si>
-  <si>
-    <t>Mendesain Prototype Fitur artikel page dengan menggunakan Flutter</t>
-  </si>
-  <si>
     <t>Membuat rikasan contoh artikel-artikel sesuai kategori dengan Flutter.</t>
   </si>
   <si>
@@ -989,6 +971,24 @@
   </si>
   <si>
     <t>Implementasi Halaman Forget Password dengan Flutter,</t>
+  </si>
+  <si>
+    <t>Implementasi Fitur HomePage artikel dengan menggunakan Flutter</t>
+  </si>
+  <si>
+    <t>Implementasi prototype Fitur MenuSidebar pada homepage dengan menggunakan Flutter</t>
+  </si>
+  <si>
+    <t>Implementasi prototype Fitur TopikPage dengan menggunakan Flutter</t>
+  </si>
+  <si>
+    <t>Implementasi Fitur tabsbar kategori berita dihomepage dengan menggunakan prototype Flutter</t>
+  </si>
+  <si>
+    <t>Mendesain dan Implementasi fitur search di homepage dengan menggunakan Flutter</t>
+  </si>
+  <si>
+    <t>Implementasi Prototype Fitur artikel page dengan menggunakan Flutter</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1388,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1490,6 +1490,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,11 +1505,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1514,57 +1517,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,45 +1661,54 @@
     <xf numFmtId="15" fontId="5" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1718,13 +1727,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1733,16 +1763,13 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,31 +1781,10 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2104,8 +2110,8 @@
   </sheetPr>
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="99" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" topLeftCell="D139" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="99" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171:E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2122,84 +2128,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="28" t="s">
         <v>214</v>
       </c>
       <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="28" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -2620,36 +2626,36 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="4">
         <f>SUM(F11:F29)</f>
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="7" t="s">
         <v>58</v>
       </c>
@@ -2662,583 +2668,583 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="39">
+      <c r="A33" s="41">
         <v>110</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="40" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="43">
         <v>2</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="39">
+      <c r="A35" s="41">
         <v>111</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="43">
         <v>2</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39">
+      <c r="A37" s="41">
         <v>112</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="40"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E37" s="7">
         <v>1</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="16" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="7">
         <v>1</v>
       </c>
-      <c r="F38" s="41"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39">
+      <c r="A39" s="41">
         <v>113</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="40"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="16" t="s">
         <v>99</v>
       </c>
       <c r="E39" s="7">
         <v>1</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="16" t="s">
         <v>100</v>
       </c>
       <c r="E40" s="7">
         <v>1</v>
       </c>
-      <c r="F40" s="41"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="39">
+      <c r="A41" s="41">
         <v>114</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40" t="s">
+      <c r="C41" s="42"/>
+      <c r="D41" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="43">
         <v>3</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="39">
+      <c r="A43" s="41">
         <v>115</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="40"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="16" t="s">
         <v>114</v>
       </c>
       <c r="E43" s="7">
         <v>2</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E44" s="7">
         <v>5</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="39">
+      <c r="A45" s="41">
         <v>116</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40" t="s">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="43">
         <v>8</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="39">
+      <c r="A47" s="41">
         <v>117</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40" t="s">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="43">
         <v>5</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="39">
+      <c r="A49" s="41">
         <v>118</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40" t="s">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="43">
         <v>13</v>
       </c>
-      <c r="F49" s="41" t="s">
+      <c r="F49" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="39">
+      <c r="A51" s="41">
         <v>119</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40" t="s">
+      <c r="C51" s="42"/>
+      <c r="D51" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E51" s="43">
         <v>1</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="39">
+      <c r="A53" s="41">
         <v>120</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40" t="s">
+      <c r="C53" s="42"/>
+      <c r="D53" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="43">
         <v>5</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="39">
+      <c r="A55" s="41">
         <v>121</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40" t="s">
+      <c r="C55" s="42"/>
+      <c r="D55" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="41">
+      <c r="E55" s="43">
         <v>3</v>
       </c>
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="39">
+      <c r="A57" s="41">
         <v>122</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="40"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="16" t="s">
         <v>106</v>
       </c>
       <c r="E57" s="7">
         <v>1</v>
       </c>
-      <c r="F57" s="41" t="s">
+      <c r="F57" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="16" t="s">
         <v>107</v>
       </c>
       <c r="E58" s="7">
         <v>3</v>
       </c>
-      <c r="F58" s="41"/>
+      <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="39">
+      <c r="A59" s="41">
         <v>123</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="40"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E59" s="7">
         <v>5</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F59" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E60" s="7">
         <v>3</v>
       </c>
-      <c r="F60" s="41"/>
+      <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="39">
+      <c r="A61" s="41">
         <v>124</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40" t="s">
+      <c r="C61" s="42"/>
+      <c r="D61" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="41">
+      <c r="E61" s="43">
         <v>8</v>
       </c>
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="39">
+      <c r="A63" s="41">
         <v>125</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40" t="s">
+      <c r="C63" s="42"/>
+      <c r="D63" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="41">
+      <c r="E63" s="43">
         <v>8</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="39"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="39">
+      <c r="A65" s="41">
         <v>126</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40" t="s">
+      <c r="C65" s="42"/>
+      <c r="D65" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="41">
+      <c r="E65" s="43">
         <v>5</v>
       </c>
-      <c r="F65" s="41" t="s">
+      <c r="F65" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="39">
+      <c r="A67" s="41">
         <v>127</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="40"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E67" s="7">
         <v>5</v>
       </c>
-      <c r="F67" s="41" t="s">
+      <c r="F67" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="7">
         <v>3</v>
       </c>
-      <c r="F68" s="41"/>
+      <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="39">
+      <c r="A69" s="41">
         <v>128</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40" t="s">
+      <c r="C69" s="42"/>
+      <c r="D69" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E69" s="41">
+      <c r="E69" s="43">
         <v>13</v>
       </c>
-      <c r="F69" s="41" t="s">
+      <c r="F69" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
       <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="43"/>
+      <c r="C76" s="40"/>
       <c r="D76" s="6" t="s">
         <v>58</v>
       </c>
@@ -3251,84 +3257,84 @@
       <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="39">
+      <c r="A77" s="41">
         <v>110</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40" t="s">
+      <c r="C77" s="42"/>
+      <c r="D77" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E77" s="41">
+      <c r="E77" s="43">
         <v>2</v>
       </c>
-      <c r="F77" s="41" t="s">
+      <c r="F77" s="43" t="s">
         <v>61</v>
       </c>
       <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
       <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="39">
+      <c r="A79" s="41">
         <v>121</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40" t="s">
+      <c r="C79" s="42"/>
+      <c r="D79" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E79" s="41">
+      <c r="E79" s="43">
         <v>3</v>
       </c>
-      <c r="F79" s="41" t="s">
+      <c r="F79" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="39">
+      <c r="A81" s="41">
         <v>111</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40" t="s">
+      <c r="C81" s="42"/>
+      <c r="D81" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="41">
+      <c r="E81" s="43">
         <v>2</v>
       </c>
-      <c r="F81" s="41" t="s">
+      <c r="F81" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
     </row>
     <row r="83" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33"/>
@@ -3339,53 +3345,53 @@
       <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
     </row>
     <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
     </row>
     <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
     </row>
     <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
     </row>
     <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="43"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="6" t="s">
         <v>58</v>
       </c>
@@ -3397,172 +3403,172 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="39">
+      <c r="A89" s="41">
         <v>117</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40" t="s">
+      <c r="C89" s="42"/>
+      <c r="D89" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="E89" s="41">
+      <c r="E89" s="43">
         <v>5</v>
       </c>
-      <c r="F89" s="41" t="s">
+      <c r="F89" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="39">
+      <c r="A91" s="41">
         <v>124</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40" t="s">
+      <c r="C91" s="42"/>
+      <c r="D91" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="41">
+      <c r="E91" s="43">
         <v>8</v>
       </c>
-      <c r="F91" s="41" t="s">
+      <c r="F91" s="43" t="s">
         <v>61</v>
       </c>
       <c r="G91" s="15"/>
     </row>
     <row r="92" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="39"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
       <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="39">
+      <c r="A93" s="41">
         <v>123</v>
       </c>
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="40"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E93" s="7">
         <v>5</v>
       </c>
-      <c r="F93" s="41" t="s">
+      <c r="F93" s="43" t="s">
         <v>61</v>
       </c>
       <c r="G93" s="15"/>
     </row>
     <row r="94" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="39"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E94" s="7">
         <v>3</v>
       </c>
-      <c r="F94" s="41"/>
+      <c r="F94" s="43"/>
       <c r="G94" s="15"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="39">
+      <c r="A95" s="41">
         <v>116</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40" t="s">
+      <c r="C95" s="42"/>
+      <c r="D95" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="43">
         <v>8</v>
       </c>
-      <c r="F95" s="41" t="s">
+      <c r="F95" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="39"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="39">
+      <c r="A97" s="41">
         <v>125</v>
       </c>
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40" t="s">
+      <c r="C97" s="42"/>
+      <c r="D97" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E97" s="41">
+      <c r="E97" s="43">
         <v>8</v>
       </c>
-      <c r="F97" s="41" t="s">
+      <c r="F97" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="39"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
     </row>
     <row r="99" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="39">
+      <c r="A99" s="41">
         <v>115</v>
       </c>
-      <c r="B99" s="40" t="s">
+      <c r="B99" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C99" s="40"/>
+      <c r="C99" s="42"/>
       <c r="D99" s="16" t="s">
         <v>114</v>
       </c>
       <c r="E99" s="7">
         <v>2</v>
       </c>
-      <c r="F99" s="41" t="s">
+      <c r="F99" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="39"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E100" s="7">
         <v>5</v>
       </c>
-      <c r="F100" s="41"/>
+      <c r="F100" s="43"/>
     </row>
     <row r="101" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="33"/>
@@ -3573,53 +3579,53 @@
       <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
     </row>
     <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
     </row>
     <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
     </row>
     <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B105" s="42"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
     </row>
     <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="43"/>
+      <c r="C106" s="40"/>
       <c r="D106" s="6" t="s">
         <v>58</v>
       </c>
@@ -3631,93 +3637,93 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="41">
+      <c r="A107" s="43">
         <v>120</v>
       </c>
-      <c r="B107" s="40" t="s">
+      <c r="B107" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="40"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E107" s="41">
+      <c r="E107" s="43">
         <v>5</v>
       </c>
-      <c r="F107" s="41" t="s">
+      <c r="F107" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="41"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
     </row>
     <row r="109" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="41">
+      <c r="A109" s="43">
         <v>118</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="40"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E109" s="41">
+      <c r="E109" s="43">
         <v>13</v>
       </c>
-      <c r="F109" s="41" t="s">
+      <c r="F109" s="43" t="s">
         <v>61</v>
       </c>
       <c r="G109" s="14"/>
     </row>
     <row r="110" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="41"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="42"/>
       <c r="D110" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="41">
+      <c r="A111" s="43">
         <v>122</v>
       </c>
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="40"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="16" t="s">
         <v>108</v>
       </c>
       <c r="E111" s="7">
         <v>1</v>
       </c>
-      <c r="F111" s="41" t="s">
+      <c r="F111" s="43" t="s">
         <v>61</v>
       </c>
       <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="41"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
       <c r="D112" s="16" t="s">
         <v>107</v>
       </c>
       <c r="E112" s="7">
         <v>3</v>
       </c>
-      <c r="F112" s="41"/>
+      <c r="F112" s="43"/>
       <c r="G112" s="15"/>
     </row>
     <row r="113" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3730,55 +3736,55 @@
       <c r="G113" s="15"/>
     </row>
     <row r="114" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="44" t="s">
+      <c r="A114" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B114" s="45"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="46"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="47"/>
       <c r="G114" s="15"/>
     </row>
     <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="44" t="s">
+      <c r="A115" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B115" s="45"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="46"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="47"/>
       <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="53" t="s">
+      <c r="A116" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B116" s="54"/>
-      <c r="C116" s="54"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="54"/>
-      <c r="F116" s="55"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="50"/>
     </row>
     <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="44" t="s">
+      <c r="A117" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B117" s="45"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="46"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="47"/>
     </row>
     <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B118" s="43" t="s">
+      <c r="B118" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="43"/>
+      <c r="C118" s="40"/>
       <c r="D118" s="6" t="s">
         <v>58</v>
       </c>
@@ -3790,116 +3796,116 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="39">
+      <c r="A119" s="41">
         <v>112</v>
       </c>
-      <c r="B119" s="40" t="s">
+      <c r="B119" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C119" s="40"/>
+      <c r="C119" s="42"/>
       <c r="D119" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E119" s="7">
         <v>1</v>
       </c>
-      <c r="F119" s="41" t="s">
+      <c r="F119" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="39"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="40"/>
+      <c r="A120" s="41"/>
+      <c r="B120" s="42"/>
+      <c r="C120" s="42"/>
       <c r="D120" s="17" t="s">
         <v>98</v>
       </c>
       <c r="E120" s="7">
         <v>1</v>
       </c>
-      <c r="F120" s="41"/>
+      <c r="F120" s="43"/>
     </row>
     <row r="121" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="39">
+      <c r="A121" s="41">
         <v>113</v>
       </c>
-      <c r="B121" s="40" t="s">
+      <c r="B121" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C121" s="40"/>
+      <c r="C121" s="42"/>
       <c r="D121" s="17" t="s">
         <v>99</v>
       </c>
       <c r="E121" s="7">
         <v>1</v>
       </c>
-      <c r="F121" s="41" t="s">
+      <c r="F121" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="39"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
+      <c r="A122" s="41"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
       <c r="D122" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E122" s="7">
         <v>1</v>
       </c>
-      <c r="F122" s="41"/>
+      <c r="F122" s="43"/>
     </row>
     <row r="123" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="39">
+      <c r="A123" s="41">
         <v>114</v>
       </c>
-      <c r="B123" s="40" t="s">
+      <c r="B123" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="40"/>
-      <c r="D123" s="56" t="s">
+      <c r="C123" s="42"/>
+      <c r="D123" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E123" s="41">
+      <c r="E123" s="43">
         <v>3</v>
       </c>
-      <c r="F123" s="41" t="s">
+      <c r="F123" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="39"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
+      <c r="A124" s="41"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="44"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
     </row>
     <row r="125" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="39">
+      <c r="A125" s="41">
         <v>126</v>
       </c>
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C125" s="40"/>
-      <c r="D125" s="56" t="s">
+      <c r="C125" s="42"/>
+      <c r="D125" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E125" s="41">
+      <c r="E125" s="43">
         <v>5</v>
       </c>
-      <c r="F125" s="41" t="s">
+      <c r="F125" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="39"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
+      <c r="A126" s="41"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
       <c r="G126" s="15"/>
     </row>
     <row r="127" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3912,56 +3918,56 @@
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="42" t="s">
+      <c r="A128" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B128" s="42"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="42"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="42"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
       <c r="G128" s="15"/>
     </row>
     <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="39"/>
       <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="43" t="s">
+      <c r="A130" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="40"/>
       <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B131" s="42"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="42"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
     </row>
     <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B132" s="43" t="s">
+      <c r="B132" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C132" s="43"/>
+      <c r="C132" s="40"/>
       <c r="D132" s="6" t="s">
         <v>58</v>
       </c>
@@ -3973,60 +3979,60 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="39">
+      <c r="A133" s="41">
         <v>127</v>
       </c>
-      <c r="B133" s="40" t="s">
+      <c r="B133" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C133" s="40"/>
+      <c r="C133" s="42"/>
       <c r="D133" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E133" s="7">
         <v>5</v>
       </c>
-      <c r="F133" s="41" t="s">
+      <c r="F133" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="39"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="40"/>
+      <c r="A134" s="41"/>
+      <c r="B134" s="42"/>
+      <c r="C134" s="42"/>
       <c r="D134" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E134" s="7">
         <v>3</v>
       </c>
-      <c r="F134" s="41"/>
+      <c r="F134" s="43"/>
     </row>
     <row r="135" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="39">
+      <c r="A135" s="41">
         <v>128</v>
       </c>
-      <c r="B135" s="40" t="s">
+      <c r="B135" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40" t="s">
+      <c r="C135" s="42"/>
+      <c r="D135" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E135" s="41">
+      <c r="E135" s="43">
         <v>13</v>
       </c>
-      <c r="F135" s="41" t="s">
+      <c r="F135" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="39"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="41"/>
-      <c r="F136" s="41"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
     </row>
     <row r="137" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="35"/>
@@ -4038,53 +4044,53 @@
       <c r="G137" s="15"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="42" t="s">
+      <c r="A138" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="B138" s="42"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="42"/>
-      <c r="E138" s="42"/>
-      <c r="F138" s="42"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
     </row>
     <row r="139" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="42" t="s">
+      <c r="A139" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B139" s="42"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="42"/>
-      <c r="E139" s="42"/>
-      <c r="F139" s="42"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
     </row>
     <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="B140" s="43"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="43"/>
-      <c r="E140" s="43"/>
-      <c r="F140" s="43"/>
+      <c r="A140" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="40"/>
     </row>
     <row r="141" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="44" t="s">
+      <c r="A141" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B141" s="45"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="45"/>
-      <c r="F141" s="46"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="47"/>
     </row>
     <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C142" s="43"/>
+      <c r="C142" s="40"/>
       <c r="D142" s="6" t="s">
         <v>58</v>
       </c>
@@ -4096,125 +4102,125 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="39">
+      <c r="A143" s="41">
         <v>110</v>
       </c>
-      <c r="B143" s="40" t="s">
+      <c r="B143" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40" t="s">
+      <c r="C143" s="42"/>
+      <c r="D143" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E143" s="41">
+      <c r="E143" s="43">
         <v>2</v>
       </c>
-      <c r="F143" s="41" t="s">
+      <c r="F143" s="43" t="s">
         <v>61</v>
       </c>
       <c r="G143" s="15"/>
     </row>
     <row r="144" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="39"/>
-      <c r="B144" s="40"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="41"/>
-      <c r="F144" s="41"/>
+      <c r="A144" s="41"/>
+      <c r="B144" s="42"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="43"/>
       <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="39">
+      <c r="A145" s="41">
         <v>121</v>
       </c>
-      <c r="B145" s="40" t="s">
+      <c r="B145" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C145" s="40"/>
-      <c r="D145" s="47" t="s">
+      <c r="C145" s="42"/>
+      <c r="D145" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="E145" s="41">
+      <c r="E145" s="43">
         <v>3</v>
       </c>
-      <c r="F145" s="41" t="s">
+      <c r="F145" s="43" t="s">
         <v>61</v>
       </c>
       <c r="G145" s="15"/>
     </row>
     <row r="146" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="39"/>
-      <c r="B146" s="40"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="48"/>
-      <c r="E146" s="41"/>
-      <c r="F146" s="41"/>
+      <c r="A146" s="41"/>
+      <c r="B146" s="42"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
       <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="39">
+      <c r="A147" s="41">
         <v>111</v>
       </c>
-      <c r="B147" s="40" t="s">
+      <c r="B147" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C147" s="40"/>
-      <c r="D147" s="47" t="s">
+      <c r="C147" s="42"/>
+      <c r="D147" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E147" s="41">
+      <c r="E147" s="43">
         <v>2</v>
       </c>
-      <c r="F147" s="41" t="s">
+      <c r="F147" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="39"/>
-      <c r="B148" s="40"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="48"/>
-      <c r="E148" s="41"/>
-      <c r="F148" s="41"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="42"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="63"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="43"/>
     </row>
     <row r="149" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="42" t="s">
+      <c r="A149" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="42"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="42"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39"/>
     </row>
     <row r="150" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="43" t="s">
+      <c r="A150" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="43"/>
-      <c r="F150" s="43"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="40"/>
     </row>
     <row r="151" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="42" t="s">
+      <c r="A151" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B151" s="42"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="42"/>
-      <c r="E151" s="42"/>
-      <c r="F151" s="42"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="39"/>
     </row>
     <row r="152" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B152" s="43" t="s">
+      <c r="B152" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C152" s="43"/>
+      <c r="C152" s="40"/>
       <c r="D152" s="6" t="s">
         <v>58</v>
       </c>
@@ -4226,217 +4232,217 @@
       </c>
     </row>
     <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="39">
+      <c r="A153" s="41">
         <v>117</v>
       </c>
-      <c r="B153" s="40" t="s">
+      <c r="B153" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C153" s="40"/>
-      <c r="D153" s="40" t="s">
+      <c r="C153" s="42"/>
+      <c r="D153" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E153" s="41">
+      <c r="E153" s="43">
         <v>5</v>
       </c>
-      <c r="F153" s="41" t="s">
+      <c r="F153" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="53.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="39"/>
-      <c r="B154" s="40"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="40"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="41"/>
+      <c r="A154" s="41"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
     </row>
     <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="39">
+      <c r="A155" s="41">
         <v>124</v>
       </c>
-      <c r="B155" s="40" t="s">
+      <c r="B155" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C155" s="40"/>
-      <c r="D155" s="40" t="s">
+      <c r="C155" s="42"/>
+      <c r="D155" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="E155" s="41">
+      <c r="E155" s="43">
         <v>8</v>
       </c>
-      <c r="F155" s="41" t="s">
+      <c r="F155" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="52.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="39"/>
-      <c r="B156" s="40"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="40"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="41"/>
+      <c r="A156" s="41"/>
+      <c r="B156" s="42"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="43"/>
     </row>
     <row r="157" spans="1:7" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="39">
+      <c r="A157" s="41">
         <v>123</v>
       </c>
-      <c r="B157" s="40" t="s">
+      <c r="B157" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C157" s="40"/>
+      <c r="C157" s="42"/>
       <c r="D157" s="16" t="s">
         <v>245</v>
       </c>
       <c r="E157" s="7">
         <v>5</v>
       </c>
-      <c r="F157" s="41" t="s">
+      <c r="F157" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="40.799999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="39"/>
-      <c r="B158" s="40"/>
-      <c r="C158" s="40"/>
+      <c r="A158" s="41"/>
+      <c r="B158" s="42"/>
+      <c r="C158" s="42"/>
       <c r="D158" s="16" t="s">
         <v>246</v>
       </c>
       <c r="E158" s="7">
         <v>3</v>
       </c>
-      <c r="F158" s="41"/>
+      <c r="F158" s="43"/>
     </row>
     <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="39">
+      <c r="A159" s="41">
         <v>116</v>
       </c>
-      <c r="B159" s="40" t="s">
+      <c r="B159" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="C159" s="40"/>
-      <c r="D159" s="40" t="s">
+      <c r="C159" s="42"/>
+      <c r="D159" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="E159" s="41">
+      <c r="E159" s="43">
         <v>8</v>
       </c>
-      <c r="F159" s="41" t="s">
+      <c r="F159" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="39"/>
-      <c r="B160" s="40"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="40"/>
-      <c r="E160" s="41"/>
-      <c r="F160" s="41"/>
+      <c r="A160" s="41"/>
+      <c r="B160" s="42"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
     </row>
     <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="39">
+      <c r="A161" s="41">
         <v>125</v>
       </c>
-      <c r="B161" s="40" t="s">
+      <c r="B161" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="C161" s="40"/>
-      <c r="D161" s="40" t="s">
+      <c r="C161" s="42"/>
+      <c r="D161" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E161" s="41">
+      <c r="E161" s="43">
         <v>8</v>
       </c>
-      <c r="F161" s="41" t="s">
+      <c r="F161" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="33.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="39"/>
-      <c r="B162" s="40"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="40"/>
-      <c r="E162" s="41"/>
-      <c r="F162" s="41"/>
+      <c r="A162" s="41"/>
+      <c r="B162" s="42"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="42"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="43"/>
     </row>
     <row r="163" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="39">
+      <c r="A163" s="41">
         <v>115</v>
       </c>
-      <c r="B163" s="40" t="s">
+      <c r="B163" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C163" s="40"/>
+      <c r="C163" s="42"/>
       <c r="D163" s="16" t="s">
         <v>249</v>
       </c>
       <c r="E163" s="7">
         <v>2</v>
       </c>
-      <c r="F163" s="41" t="s">
+      <c r="F163" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="39"/>
-      <c r="B164" s="40"/>
-      <c r="C164" s="40"/>
+      <c r="A164" s="41"/>
+      <c r="B164" s="42"/>
+      <c r="C164" s="42"/>
       <c r="D164" s="16" t="s">
         <v>250</v>
       </c>
       <c r="E164" s="7">
         <v>5</v>
       </c>
-      <c r="F164" s="41"/>
+      <c r="F164" s="43"/>
     </row>
     <row r="166" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A166" s="42" t="s">
+      <c r="A166" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="B166" s="42"/>
-      <c r="C166" s="42"/>
-      <c r="D166" s="42"/>
-      <c r="E166" s="42"/>
-      <c r="F166" s="42"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="39"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
     </row>
     <row r="167" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="42" t="s">
+      <c r="A167" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B167" s="42"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="42"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="42"/>
+      <c r="B167" s="39"/>
+      <c r="C167" s="39"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
     </row>
     <row r="168" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="B168" s="43"/>
-      <c r="C168" s="43"/>
-      <c r="D168" s="43"/>
-      <c r="E168" s="43"/>
-      <c r="F168" s="43"/>
+      <c r="A168" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="40"/>
     </row>
     <row r="169" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="42" t="s">
+      <c r="A169" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B169" s="42"/>
-      <c r="C169" s="42"/>
-      <c r="D169" s="42"/>
-      <c r="E169" s="42"/>
-      <c r="F169" s="42"/>
+      <c r="B169" s="39"/>
+      <c r="C169" s="39"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="39"/>
+      <c r="F169" s="39"/>
     </row>
     <row r="170" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B170" s="43" t="s">
+      <c r="B170" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C170" s="43"/>
+      <c r="C170" s="40"/>
       <c r="D170" s="6" t="s">
         <v>58</v>
       </c>
@@ -4448,221 +4454,221 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="39">
+      <c r="A171" s="41">
         <v>117</v>
       </c>
-      <c r="B171" s="40" t="s">
+      <c r="B171" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C171" s="40"/>
-      <c r="D171" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="E171" s="41">
+      <c r="C171" s="42"/>
+      <c r="D171" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="E171" s="43">
         <v>5</v>
       </c>
-      <c r="F171" s="41" t="s">
+      <c r="F171" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="39"/>
-      <c r="B172" s="40"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="41"/>
-      <c r="F172" s="41"/>
+      <c r="A172" s="41"/>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="43"/>
+      <c r="F172" s="43"/>
     </row>
     <row r="173" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A173" s="39">
+      <c r="A173" s="41">
         <v>124</v>
       </c>
-      <c r="B173" s="40" t="s">
+      <c r="B173" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C173" s="40"/>
-      <c r="D173" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="E173" s="41">
+      <c r="C173" s="42"/>
+      <c r="D173" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="E173" s="43">
         <v>8</v>
       </c>
-      <c r="F173" s="41" t="s">
+      <c r="F173" s="43" t="s">
         <v>62</v>
       </c>
       <c r="G173" s="15"/>
     </row>
     <row r="174" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="39"/>
-      <c r="B174" s="40"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="41"/>
-      <c r="F174" s="41"/>
+      <c r="A174" s="41"/>
+      <c r="B174" s="42"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="43"/>
+      <c r="F174" s="43"/>
       <c r="G174" s="15"/>
     </row>
     <row r="175" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="39">
+      <c r="A175" s="41">
         <v>123</v>
       </c>
-      <c r="B175" s="40" t="s">
+      <c r="B175" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C175" s="40"/>
+      <c r="C175" s="42"/>
       <c r="D175" s="16" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="E175" s="7">
         <v>5</v>
       </c>
-      <c r="F175" s="41" t="s">
+      <c r="F175" s="43" t="s">
         <v>62</v>
       </c>
       <c r="G175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="39"/>
-      <c r="B176" s="40"/>
-      <c r="C176" s="40"/>
+      <c r="A176" s="41"/>
+      <c r="B176" s="42"/>
+      <c r="C176" s="42"/>
       <c r="D176" s="16" t="s">
         <v>246</v>
       </c>
       <c r="E176" s="7">
         <v>3</v>
       </c>
-      <c r="F176" s="41"/>
+      <c r="F176" s="43"/>
       <c r="G176" s="15"/>
     </row>
     <row r="177" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="39">
+      <c r="A177" s="41">
         <v>116</v>
       </c>
-      <c r="B177" s="40" t="s">
+      <c r="B177" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C177" s="40"/>
-      <c r="D177" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="E177" s="41">
+      <c r="C177" s="42"/>
+      <c r="D177" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="E177" s="43">
         <v>8</v>
       </c>
-      <c r="F177" s="41" t="s">
+      <c r="F177" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="39"/>
-      <c r="B178" s="40"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="40"/>
-      <c r="E178" s="41"/>
-      <c r="F178" s="41"/>
+      <c r="A178" s="41"/>
+      <c r="B178" s="42"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="42"/>
+      <c r="E178" s="43"/>
+      <c r="F178" s="43"/>
     </row>
     <row r="179" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="39">
+      <c r="A179" s="41">
         <v>125</v>
       </c>
-      <c r="B179" s="40" t="s">
+      <c r="B179" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C179" s="40"/>
-      <c r="D179" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="E179" s="41">
+      <c r="C179" s="42"/>
+      <c r="D179" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="E179" s="43">
         <v>8</v>
       </c>
-      <c r="F179" s="41" t="s">
+      <c r="F179" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="39"/>
-      <c r="B180" s="40"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="40"/>
-      <c r="E180" s="41"/>
-      <c r="F180" s="41"/>
+      <c r="A180" s="41"/>
+      <c r="B180" s="42"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
     </row>
     <row r="181" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="39">
+      <c r="A181" s="41">
         <v>115</v>
       </c>
-      <c r="B181" s="40" t="s">
+      <c r="B181" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C181" s="40"/>
+      <c r="C181" s="42"/>
       <c r="D181" s="16" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="E181" s="7">
         <v>2</v>
       </c>
-      <c r="F181" s="41" t="s">
+      <c r="F181" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="39"/>
-      <c r="B182" s="40"/>
-      <c r="C182" s="40"/>
+      <c r="A182" s="41"/>
+      <c r="B182" s="42"/>
+      <c r="C182" s="42"/>
       <c r="D182" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E182" s="7">
         <v>5</v>
       </c>
-      <c r="F182" s="41"/>
+      <c r="F182" s="43"/>
     </row>
     <row r="184" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="42" t="s">
+      <c r="A184" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="B184" s="42"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="42"/>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="39"/>
+      <c r="F184" s="39"/>
     </row>
     <row r="185" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="42" t="s">
+      <c r="A185" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B185" s="42"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="42"/>
-      <c r="E185" s="42"/>
-      <c r="F185" s="42"/>
+      <c r="B185" s="39"/>
+      <c r="C185" s="39"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="39"/>
+      <c r="F185" s="39"/>
     </row>
     <row r="186" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A186" s="43" t="s">
+      <c r="A186" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B186" s="43"/>
-      <c r="C186" s="43"/>
-      <c r="D186" s="43"/>
-      <c r="E186" s="43"/>
-      <c r="F186" s="43"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="40"/>
+      <c r="F186" s="40"/>
     </row>
     <row r="187" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="42" t="s">
+      <c r="A187" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B187" s="42"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="42"/>
-      <c r="E187" s="42"/>
-      <c r="F187" s="42"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39"/>
+      <c r="F187" s="39"/>
     </row>
     <row r="188" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B188" s="43" t="s">
+      <c r="B188" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C188" s="43"/>
+      <c r="C188" s="40"/>
       <c r="D188" s="6" t="s">
         <v>58</v>
       </c>
@@ -4674,145 +4680,143 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="41">
+      <c r="A189" s="43">
         <v>120</v>
       </c>
-      <c r="B189" s="40" t="s">
+      <c r="B189" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C189" s="40"/>
-      <c r="D189" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E189" s="41">
+      <c r="C189" s="42"/>
+      <c r="D189" s="136" t="s">
+        <v>266</v>
+      </c>
+      <c r="E189" s="43">
         <v>5</v>
       </c>
-      <c r="F189" s="41" t="s">
+      <c r="F189" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="41"/>
-      <c r="B190" s="40"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E190" s="41"/>
-      <c r="F190" s="41"/>
+      <c r="A190" s="43"/>
+      <c r="B190" s="42"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="137"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="43"/>
     </row>
     <row r="191" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="41">
+      <c r="A191" s="43">
         <v>118</v>
       </c>
-      <c r="B191" s="40" t="s">
+      <c r="B191" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C191" s="40"/>
+      <c r="C191" s="42"/>
       <c r="D191" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E191" s="41">
+        <v>267</v>
+      </c>
+      <c r="E191" s="43">
         <v>13</v>
       </c>
-      <c r="F191" s="41" t="s">
+      <c r="F191" s="43" t="s">
         <v>62</v>
       </c>
       <c r="G191" s="14"/>
     </row>
     <row r="192" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="41"/>
-      <c r="B192" s="40"/>
-      <c r="C192" s="40"/>
+      <c r="A192" s="43"/>
+      <c r="B192" s="42"/>
+      <c r="C192" s="42"/>
       <c r="D192" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E192" s="41"/>
-      <c r="F192" s="41"/>
+        <v>266</v>
+      </c>
+      <c r="E192" s="43"/>
+      <c r="F192" s="43"/>
       <c r="G192" s="12"/>
     </row>
     <row r="193" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="41">
+      <c r="A193" s="43">
         <v>122</v>
       </c>
-      <c r="B193" s="40" t="s">
+      <c r="B193" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C193" s="40"/>
+      <c r="C193" s="42"/>
       <c r="D193" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E193" s="7">
         <v>1</v>
       </c>
-      <c r="F193" s="41" t="s">
+      <c r="F193" s="43" t="s">
         <v>62</v>
       </c>
       <c r="G193" s="15"/>
     </row>
     <row r="194" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="41"/>
-      <c r="B194" s="40"/>
-      <c r="C194" s="40"/>
+      <c r="A194" s="43"/>
+      <c r="B194" s="42"/>
+      <c r="C194" s="42"/>
       <c r="D194" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E194" s="7">
         <v>3</v>
       </c>
-      <c r="F194" s="41"/>
+      <c r="F194" s="43"/>
       <c r="G194" s="15"/>
     </row>
     <row r="196" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="44" t="s">
+      <c r="A196" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="B196" s="45"/>
-      <c r="C196" s="45"/>
-      <c r="D196" s="45"/>
-      <c r="E196" s="45"/>
-      <c r="F196" s="46"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="46"/>
+      <c r="E196" s="46"/>
+      <c r="F196" s="47"/>
       <c r="G196" s="15"/>
     </row>
     <row r="197" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A197" s="44" t="s">
+      <c r="A197" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B197" s="45"/>
-      <c r="C197" s="45"/>
-      <c r="D197" s="45"/>
-      <c r="E197" s="45"/>
-      <c r="F197" s="46"/>
+      <c r="B197" s="46"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="46"/>
+      <c r="F197" s="47"/>
       <c r="G197" s="15"/>
     </row>
     <row r="198" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A198" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="B198" s="54"/>
-      <c r="C198" s="54"/>
-      <c r="D198" s="54"/>
-      <c r="E198" s="54"/>
-      <c r="F198" s="55"/>
+      <c r="A198" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="B198" s="49"/>
+      <c r="C198" s="49"/>
+      <c r="D198" s="49"/>
+      <c r="E198" s="49"/>
+      <c r="F198" s="50"/>
     </row>
     <row r="199" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="44" t="s">
+      <c r="A199" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B199" s="45"/>
-      <c r="C199" s="45"/>
-      <c r="D199" s="45"/>
-      <c r="E199" s="45"/>
-      <c r="F199" s="46"/>
+      <c r="B199" s="46"/>
+      <c r="C199" s="46"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="46"/>
+      <c r="F199" s="47"/>
     </row>
     <row r="200" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B200" s="43" t="s">
+      <c r="B200" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C200" s="43"/>
+      <c r="C200" s="40"/>
       <c r="D200" s="6" t="s">
         <v>58</v>
       </c>
@@ -4824,169 +4828,169 @@
       </c>
     </row>
     <row r="201" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="39">
+      <c r="A201" s="41">
         <v>112</v>
       </c>
-      <c r="B201" s="40" t="s">
+      <c r="B201" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C201" s="40"/>
+      <c r="C201" s="42"/>
       <c r="D201" s="17" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E201" s="7">
         <v>1</v>
       </c>
-      <c r="F201" s="41" t="s">
+      <c r="F201" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="39"/>
-      <c r="B202" s="40"/>
-      <c r="C202" s="40"/>
+      <c r="A202" s="41"/>
+      <c r="B202" s="42"/>
+      <c r="C202" s="42"/>
       <c r="D202" s="17" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E202" s="7">
         <v>1</v>
       </c>
-      <c r="F202" s="41"/>
+      <c r="F202" s="43"/>
     </row>
     <row r="203" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="39">
+      <c r="A203" s="41">
         <v>113</v>
       </c>
-      <c r="B203" s="40" t="s">
+      <c r="B203" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C203" s="40"/>
+      <c r="C203" s="42"/>
       <c r="D203" s="17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E203" s="7">
         <v>1</v>
       </c>
-      <c r="F203" s="41" t="s">
+      <c r="F203" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="39"/>
-      <c r="B204" s="40"/>
-      <c r="C204" s="40"/>
+      <c r="A204" s="41"/>
+      <c r="B204" s="42"/>
+      <c r="C204" s="42"/>
       <c r="D204" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E204" s="7">
         <v>1</v>
       </c>
-      <c r="F204" s="41"/>
+      <c r="F204" s="43"/>
     </row>
     <row r="205" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="39">
+      <c r="A205" s="41">
         <v>114</v>
       </c>
-      <c r="B205" s="40" t="s">
+      <c r="B205" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C205" s="40"/>
-      <c r="D205" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="E205" s="41">
+      <c r="C205" s="42"/>
+      <c r="D205" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E205" s="43">
         <v>3</v>
       </c>
-      <c r="F205" s="41" t="s">
+      <c r="F205" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="39"/>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="56"/>
-      <c r="E206" s="41"/>
-      <c r="F206" s="41"/>
+      <c r="A206" s="41"/>
+      <c r="B206" s="42"/>
+      <c r="C206" s="42"/>
+      <c r="D206" s="44"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
     </row>
     <row r="207" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="39">
+      <c r="A207" s="41">
         <v>126</v>
       </c>
-      <c r="B207" s="40" t="s">
+      <c r="B207" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C207" s="40"/>
-      <c r="D207" s="56" t="s">
+      <c r="C207" s="42"/>
+      <c r="D207" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="E207" s="43">
+        <v>5</v>
+      </c>
+      <c r="F207" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="41"/>
+      <c r="B208" s="42"/>
+      <c r="C208" s="42"/>
+      <c r="D208" s="44"/>
+      <c r="E208" s="43"/>
+      <c r="F208" s="43"/>
+      <c r="G208" s="15"/>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B210" s="39"/>
+      <c r="C210" s="39"/>
+      <c r="D210" s="39"/>
+      <c r="E210" s="39"/>
+      <c r="F210" s="39"/>
+      <c r="G210" s="15"/>
+    </row>
+    <row r="211" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B211" s="39"/>
+      <c r="C211" s="39"/>
+      <c r="D211" s="39"/>
+      <c r="E211" s="39"/>
+      <c r="F211" s="39"/>
+      <c r="G211" s="15"/>
+    </row>
+    <row r="212" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="E207" s="41">
-        <v>5</v>
-      </c>
-      <c r="F207" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="39"/>
-      <c r="B208" s="40"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="56"/>
-      <c r="E208" s="41"/>
-      <c r="F208" s="41"/>
-      <c r="G208" s="15"/>
-    </row>
-    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="B210" s="42"/>
-      <c r="C210" s="42"/>
-      <c r="D210" s="42"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="42"/>
-      <c r="G210" s="15"/>
-    </row>
-    <row r="211" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A211" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B211" s="42"/>
-      <c r="C211" s="42"/>
-      <c r="D211" s="42"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="42"/>
-      <c r="G211" s="15"/>
-    </row>
-    <row r="212" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="B212" s="43"/>
-      <c r="C212" s="43"/>
-      <c r="D212" s="43"/>
-      <c r="E212" s="43"/>
-      <c r="F212" s="43"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="40"/>
+      <c r="F212" s="40"/>
       <c r="G212" s="15"/>
     </row>
     <row r="213" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="42" t="s">
+      <c r="A213" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B213" s="42"/>
-      <c r="C213" s="42"/>
-      <c r="D213" s="42"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
+      <c r="B213" s="39"/>
+      <c r="C213" s="39"/>
+      <c r="D213" s="39"/>
+      <c r="E213" s="39"/>
+      <c r="F213" s="39"/>
     </row>
     <row r="214" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B214" s="43" t="s">
+      <c r="B214" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C214" s="43"/>
+      <c r="C214" s="40"/>
       <c r="D214" s="6" t="s">
         <v>58</v>
       </c>
@@ -4998,143 +5002,284 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="39">
+      <c r="A215" s="41">
         <v>127</v>
       </c>
-      <c r="B215" s="40" t="s">
+      <c r="B215" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C215" s="40"/>
+      <c r="C215" s="42"/>
       <c r="D215" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E215" s="7">
         <v>5</v>
       </c>
-      <c r="F215" s="41" t="s">
+      <c r="F215" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="39"/>
-      <c r="B216" s="40"/>
-      <c r="C216" s="40"/>
+      <c r="A216" s="41"/>
+      <c r="B216" s="42"/>
+      <c r="C216" s="42"/>
       <c r="D216" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E216" s="7">
         <v>3</v>
       </c>
-      <c r="F216" s="41"/>
+      <c r="F216" s="43"/>
     </row>
     <row r="217" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="39">
+      <c r="A217" s="41">
         <v>128</v>
       </c>
-      <c r="B217" s="40" t="s">
+      <c r="B217" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C217" s="40"/>
-      <c r="D217" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="E217" s="41">
+      <c r="C217" s="42"/>
+      <c r="D217" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="E217" s="43">
         <v>13</v>
       </c>
-      <c r="F217" s="41" t="s">
+      <c r="F217" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="39"/>
-      <c r="B218" s="40"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="40"/>
-      <c r="E218" s="41"/>
-      <c r="F218" s="41"/>
+      <c r="A218" s="41"/>
+      <c r="B218" s="42"/>
+      <c r="C218" s="42"/>
+      <c r="D218" s="42"/>
+      <c r="E218" s="43"/>
+      <c r="F218" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="325">
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:F211"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="A213:F213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:C216"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:C204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:C194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:C202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="A185:F185"/>
-    <mergeCell ref="A186:F186"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:C190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:C192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:C182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:C176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A167:F167"/>
-    <mergeCell ref="A168:F168"/>
-    <mergeCell ref="A169:F169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
+  <mergeCells count="326">
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:C164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:C158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:C146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:C148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:C144"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A3:C5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B133:C134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:C120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:C122"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B107:C108"/>
+    <mergeCell ref="B109:C110"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="B99:C100"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="B91:C92"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C78"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="F41:F42"/>
@@ -5159,227 +5304,87 @@
     <mergeCell ref="B95:C96"/>
     <mergeCell ref="B97:C98"/>
     <mergeCell ref="F97:F98"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="B91:C92"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="B107:C108"/>
-    <mergeCell ref="B109:C110"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="B99:C100"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:C122"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A3:C5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B133:C134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:C120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:C146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:C148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:C144"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:C162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:C164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:C158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="A167:F167"/>
+    <mergeCell ref="A168:F168"/>
+    <mergeCell ref="A169:F169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:C176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:C182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:F185"/>
+    <mergeCell ref="A186:F186"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:C190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:C192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:C194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:C202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:C204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:F211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A213:F213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:C216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5396,7 +5401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4517C9-B9D8-4D37-ACBD-F716B17A2C9D}">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
@@ -5410,30 +5415,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="104" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="86" t="s">
@@ -5474,11 +5479,11 @@
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
       <c r="F5" s="67"/>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="64"/>
@@ -5487,9 +5492,9 @@
       <c r="D6" s="69"/>
       <c r="E6" s="69"/>
       <c r="F6" s="70"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="64"/>
@@ -5498,9 +5503,9 @@
       <c r="D7" s="69"/>
       <c r="E7" s="69"/>
       <c r="F7" s="70"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="64"/>
@@ -5509,9 +5514,9 @@
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
       <c r="F8" s="73"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="64"/>
@@ -5539,11 +5544,11 @@
       <c r="D10" s="66"/>
       <c r="E10" s="66"/>
       <c r="F10" s="67"/>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="64"/>
@@ -5552,9 +5557,9 @@
       <c r="D11" s="69"/>
       <c r="E11" s="69"/>
       <c r="F11" s="70"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
@@ -5563,9 +5568,9 @@
       <c r="D12" s="69"/>
       <c r="E12" s="69"/>
       <c r="F12" s="70"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
@@ -5574,9 +5579,9 @@
       <c r="D13" s="72"/>
       <c r="E13" s="72"/>
       <c r="F13" s="73"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="64"/>
@@ -5604,11 +5609,11 @@
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
       <c r="F15" s="67"/>
-      <c r="G15" s="105" t="s">
+      <c r="G15" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
@@ -5617,9 +5622,9 @@
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
       <c r="F16" s="70"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="64"/>
@@ -5628,9 +5633,9 @@
       <c r="D17" s="69"/>
       <c r="E17" s="69"/>
       <c r="F17" s="70"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
@@ -5639,9 +5644,9 @@
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
       <c r="F18" s="73"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
@@ -5659,15 +5664,15 @@
       <c r="I19" s="64"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="86" t="s">
@@ -6584,7 +6589,7 @@
       <c r="E95" s="90"/>
       <c r="F95" s="91"/>
       <c r="G95" s="95" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H95" s="93"/>
       <c r="I95" s="94"/>
@@ -6666,7 +6671,7 @@
       <c r="E101" s="66"/>
       <c r="F101" s="67"/>
       <c r="G101" s="74" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H101" s="75"/>
       <c r="I101" s="76"/>
@@ -6786,7 +6791,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="86" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B112" s="87"/>
       <c r="C112" s="87"/>
@@ -6807,7 +6812,7 @@
       <c r="E113" s="90"/>
       <c r="F113" s="91"/>
       <c r="G113" s="95" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H113" s="93"/>
       <c r="I113" s="94"/>
@@ -7003,7 +7008,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="86" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B130" s="87"/>
       <c r="C130" s="87"/>
@@ -7218,7 +7223,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="86" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B148" s="87"/>
       <c r="C148" s="87"/>
@@ -7433,7 +7438,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="86" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B166" s="87"/>
       <c r="C166" s="87"/>
@@ -7648,73 +7653,98 @@
     </row>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="A173:A177"/>
-    <mergeCell ref="B173:F176"/>
-    <mergeCell ref="G173:I176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="B178:F181"/>
-    <mergeCell ref="G178:I181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="G182:I182"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="B160:F163"/>
-    <mergeCell ref="G160:I163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="G164:I164"/>
-    <mergeCell ref="A166:F167"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="G167:I167"/>
-    <mergeCell ref="A168:A172"/>
-    <mergeCell ref="B168:F171"/>
-    <mergeCell ref="G168:I171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="A148:F149"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="B150:F153"/>
-    <mergeCell ref="G150:I153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="B155:F158"/>
-    <mergeCell ref="G155:I158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:F140"/>
-    <mergeCell ref="G137:I140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="B142:F145"/>
-    <mergeCell ref="G142:I145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="A112:F113"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B114:F117"/>
-    <mergeCell ref="G114:I117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="A130:F131"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:F122"/>
-    <mergeCell ref="G119:I122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="B124:F127"/>
-    <mergeCell ref="G124:I127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="B106:F109"/>
+    <mergeCell ref="G106:I109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="B101:F104"/>
+    <mergeCell ref="G101:I104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="A94:F95"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:F99"/>
+    <mergeCell ref="G96:I99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:F91"/>
+    <mergeCell ref="G88:I91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:F86"/>
+    <mergeCell ref="G83:I86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="A76:F77"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:F81"/>
+    <mergeCell ref="G78:I81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:F67"/>
+    <mergeCell ref="G64:I67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:F72"/>
+    <mergeCell ref="G69:I72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="A57:F58"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:F62"/>
+    <mergeCell ref="G59:I62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:F49"/>
+    <mergeCell ref="G46:I49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:F54"/>
+    <mergeCell ref="G51:I54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:F44"/>
+    <mergeCell ref="G41:I44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:F31"/>
+    <mergeCell ref="G28:I31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:F36"/>
+    <mergeCell ref="G33:I36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:F26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="A132:A136"/>
     <mergeCell ref="B132:F135"/>
     <mergeCell ref="G132:I135"/>
@@ -7739,98 +7769,73 @@
     <mergeCell ref="B15:F18"/>
     <mergeCell ref="G15:I18"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:F26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:F44"/>
-    <mergeCell ref="G41:I44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:F31"/>
-    <mergeCell ref="G28:I31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:F36"/>
-    <mergeCell ref="G33:I36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A57:F58"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:F62"/>
-    <mergeCell ref="G59:I62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:F49"/>
-    <mergeCell ref="G46:I49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:F54"/>
-    <mergeCell ref="G51:I54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:F67"/>
-    <mergeCell ref="G64:I67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:F72"/>
-    <mergeCell ref="G69:I72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:F86"/>
-    <mergeCell ref="G83:I86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="A76:F77"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B78:F81"/>
-    <mergeCell ref="G78:I81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A94:F95"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:F99"/>
-    <mergeCell ref="G96:I99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:F91"/>
-    <mergeCell ref="G88:I91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="B106:F109"/>
-    <mergeCell ref="G106:I109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="B101:F104"/>
-    <mergeCell ref="G101:I104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="A112:F113"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:F117"/>
+    <mergeCell ref="G114:I117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="A130:F131"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:F122"/>
+    <mergeCell ref="G119:I122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="B124:F127"/>
+    <mergeCell ref="G124:I127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:F140"/>
+    <mergeCell ref="G137:I140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="B142:F145"/>
+    <mergeCell ref="G142:I145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="A148:F149"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="B150:F153"/>
+    <mergeCell ref="G150:I153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="B155:F158"/>
+    <mergeCell ref="G155:I158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="G159:I159"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="B160:F163"/>
+    <mergeCell ref="G160:I163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="G164:I164"/>
+    <mergeCell ref="A166:F167"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="G167:I167"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="B168:F171"/>
+    <mergeCell ref="G168:I171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="A173:A177"/>
+    <mergeCell ref="B173:F176"/>
+    <mergeCell ref="G173:I176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="B178:F181"/>
+    <mergeCell ref="G178:I181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="G182:I182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="portrait" r:id="rId1"/>
@@ -7863,18 +7868,18 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
     </row>
     <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
@@ -7888,48 +7893,48 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="106" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="106"/>
     </row>
     <row r="8" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="107"/>
+      <c r="C8" s="106"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
     </row>
     <row r="10" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="107"/>
+      <c r="C10" s="106"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -7937,11 +7942,11 @@
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
@@ -7961,7 +7966,7 @@
       <c r="B15" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="106" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7972,7 +7977,7 @@
       <c r="B16" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="107"/>
+      <c r="C16" s="106"/>
     </row>
     <row r="17" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -7981,7 +7986,7 @@
       <c r="B17" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="107"/>
+      <c r="C17" s="106"/>
     </row>
     <row r="18" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
@@ -7990,7 +7995,7 @@
       <c r="B18" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="107"/>
+      <c r="C18" s="106"/>
     </row>
     <row r="19" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
@@ -7999,7 +8004,7 @@
       <c r="B19" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="107"/>
+      <c r="C19" s="106"/>
     </row>
     <row r="20" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
@@ -8008,7 +8013,7 @@
       <c r="B20" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="107"/>
+      <c r="C20" s="106"/>
     </row>
     <row r="21" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
@@ -8017,7 +8022,7 @@
       <c r="B21" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="107"/>
+      <c r="C21" s="106"/>
     </row>
     <row r="22" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
@@ -8026,7 +8031,7 @@
       <c r="B22" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="107"/>
+      <c r="C22" s="106"/>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -8034,11 +8039,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
@@ -8058,7 +8063,7 @@
       <c r="B26" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="106" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8069,7 +8074,7 @@
       <c r="B27" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="107"/>
+      <c r="C27" s="106"/>
     </row>
     <row r="28" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
@@ -8078,7 +8083,7 @@
       <c r="B28" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="107"/>
+      <c r="C28" s="106"/>
     </row>
     <row r="29" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
@@ -8087,7 +8092,7 @@
       <c r="B29" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="107"/>
+      <c r="C29" s="106"/>
     </row>
     <row r="30" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
@@ -8096,7 +8101,7 @@
       <c r="B30" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="107"/>
+      <c r="C30" s="106"/>
     </row>
     <row r="31" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
@@ -8105,7 +8110,7 @@
       <c r="B31" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="107"/>
+      <c r="C31" s="106"/>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
@@ -8113,11 +8118,11 @@
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
@@ -8137,7 +8142,7 @@
       <c r="B35" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="106" t="s">
         <v>173</v>
       </c>
     </row>
@@ -8148,7 +8153,7 @@
       <c r="B36" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="107"/>
+      <c r="C36" s="106"/>
     </row>
     <row r="37" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
@@ -8157,7 +8162,7 @@
       <c r="B37" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="107"/>
+      <c r="C37" s="106"/>
     </row>
     <row r="38" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
@@ -8166,7 +8171,7 @@
       <c r="B38" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="107"/>
+      <c r="C38" s="106"/>
     </row>
     <row r="39" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
@@ -8175,7 +8180,7 @@
       <c r="B39" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="107"/>
+      <c r="C39" s="106"/>
     </row>
     <row r="40" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
@@ -8184,7 +8189,7 @@
       <c r="B40" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="107"/>
+      <c r="C40" s="106"/>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
@@ -8192,11 +8197,11 @@
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
@@ -8216,7 +8221,7 @@
       <c r="B44" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="106" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8227,7 +8232,7 @@
       <c r="B45" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="107"/>
+      <c r="C45" s="106"/>
     </row>
     <row r="46" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
@@ -8236,7 +8241,7 @@
       <c r="B46" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="107"/>
+      <c r="C46" s="106"/>
     </row>
     <row r="47" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
@@ -8245,14 +8250,14 @@
       <c r="B47" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="107"/>
+      <c r="C47" s="106"/>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
@@ -8266,51 +8271,61 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="107" t="s">
+      <c r="C51" s="106" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="107"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="106"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="107"/>
+      <c r="C53" s="106"/>
     </row>
     <row r="54" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="107"/>
+      <c r="C55" s="106"/>
     </row>
     <row r="56" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -8327,16 +8342,6 @@
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8358,917 +8363,988 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117" t="s">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="2:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
     </row>
     <row r="5" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="109" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="109" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="114"/>
     </row>
     <row r="6" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="114"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="117"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="109" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="109" t="s">
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="111"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="114"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="109" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="109" t="s">
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="117"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="117" t="s">
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117" t="s">
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="109" t="s">
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="109" t="s">
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="111"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="114"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="117"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="109" t="s">
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="109" t="s">
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="114"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="117"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="109" t="s">
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="109" t="s">
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="114"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="114"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="117"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117" t="s">
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117" t="s">
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="109" t="s">
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="109" t="s">
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="114"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="112"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="114"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="117"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="109" t="s">
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="109" t="s">
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="111"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="114"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="114"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="117"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="109" t="s">
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="109" t="s">
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="111"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="114"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="112"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="114"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="117"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="117" t="s">
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117" t="s">
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="109" t="s">
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="109" t="s">
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="111"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="114"/>
     </row>
     <row r="37" spans="2:13" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="112"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="117"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="109" t="s">
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="109" t="s">
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="111"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="114"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="117"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="109"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="109" t="s">
+      <c r="B40" s="112"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="109" t="s">
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="111"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="114"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="112"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="114"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="117"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="109" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="115"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="117" t="s">
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117" t="s">
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="K44" s="117"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="117"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="117"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="109" t="s">
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="109" t="s">
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="111"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="113"/>
+      <c r="M46" s="114"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="112"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="112"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="114"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="117"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="109" t="s">
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="109" t="s">
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="111"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="114"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="112"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="114"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="117"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="109" t="s">
+      <c r="B50" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="109" t="s">
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="109" t="s">
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="111"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="114"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="112"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="114"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="117"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="115" t="s">
+      <c r="B53" s="109" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="115"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="115"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="109"/>
+      <c r="L53" s="109"/>
+      <c r="M53" s="109"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="117" t="s">
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="117" t="s">
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="K54" s="117"/>
-      <c r="L54" s="117"/>
-      <c r="M54" s="117"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="111"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="117"/>
-      <c r="M55" s="117"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="111"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="111"/>
+      <c r="M55" s="111"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="109" t="s">
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="109" t="s">
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="K56" s="110"/>
-      <c r="L56" s="110"/>
-      <c r="M56" s="111"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="113"/>
+      <c r="M56" s="114"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="112"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="113"/>
-      <c r="M57" s="114"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
+      <c r="M57" s="117"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="109" t="s">
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="109" t="s">
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="K58" s="110"/>
-      <c r="L58" s="110"/>
-      <c r="M58" s="111"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="114"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="112"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="114"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="117"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="109" t="s">
-        <v>292</v>
-      </c>
-      <c r="G60" s="110"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="109" t="s">
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="K60" s="110"/>
-      <c r="L60" s="110"/>
-      <c r="M60" s="111"/>
+      <c r="K60" s="113"/>
+      <c r="L60" s="113"/>
+      <c r="M60" s="114"/>
     </row>
     <row r="61" spans="2:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="112"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="113"/>
-      <c r="L61" s="113"/>
-      <c r="M61" s="114"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="116"/>
+      <c r="M61" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B58:E59"/>
+    <mergeCell ref="F58:I59"/>
+    <mergeCell ref="J58:M59"/>
+    <mergeCell ref="B60:E61"/>
+    <mergeCell ref="F60:I61"/>
+    <mergeCell ref="J60:M61"/>
+    <mergeCell ref="B53:M53"/>
+    <mergeCell ref="B54:E55"/>
+    <mergeCell ref="F54:I55"/>
+    <mergeCell ref="J54:M55"/>
+    <mergeCell ref="B56:E57"/>
+    <mergeCell ref="F56:I57"/>
+    <mergeCell ref="J56:M57"/>
+    <mergeCell ref="B48:E49"/>
+    <mergeCell ref="F48:I49"/>
+    <mergeCell ref="J48:M49"/>
+    <mergeCell ref="B50:E51"/>
+    <mergeCell ref="F50:I51"/>
+    <mergeCell ref="J50:M51"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="F44:I45"/>
+    <mergeCell ref="J44:M45"/>
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="F46:I47"/>
+    <mergeCell ref="J46:M47"/>
+    <mergeCell ref="B38:E39"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="J38:M39"/>
+    <mergeCell ref="B40:E41"/>
+    <mergeCell ref="F40:I41"/>
+    <mergeCell ref="J40:M41"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:E35"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="J34:M35"/>
+    <mergeCell ref="B36:E37"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="J36:M37"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="F28:I29"/>
+    <mergeCell ref="J28:M29"/>
+    <mergeCell ref="B30:E31"/>
+    <mergeCell ref="F30:I31"/>
+    <mergeCell ref="J30:M31"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B24:E25"/>
+    <mergeCell ref="F24:I25"/>
+    <mergeCell ref="J24:M25"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="F18:I19"/>
+    <mergeCell ref="J18:M19"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="F20:I21"/>
+    <mergeCell ref="J20:M21"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="F7:I8"/>
+    <mergeCell ref="J7:M8"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="J9:M10"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="F3:I4"/>
@@ -9276,77 +9352,6 @@
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="F5:I6"/>
     <mergeCell ref="J5:M6"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="F7:I8"/>
-    <mergeCell ref="J7:M8"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="J9:M10"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="J14:M15"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:M17"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="F18:I19"/>
-    <mergeCell ref="J18:M19"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="F20:I21"/>
-    <mergeCell ref="J20:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B24:E25"/>
-    <mergeCell ref="F24:I25"/>
-    <mergeCell ref="J24:M25"/>
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="B28:E29"/>
-    <mergeCell ref="F28:I29"/>
-    <mergeCell ref="J28:M29"/>
-    <mergeCell ref="B30:E31"/>
-    <mergeCell ref="F30:I31"/>
-    <mergeCell ref="J30:M31"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:E35"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="J34:M35"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="J36:M37"/>
-    <mergeCell ref="B38:E39"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="J38:M39"/>
-    <mergeCell ref="B40:E41"/>
-    <mergeCell ref="F40:I41"/>
-    <mergeCell ref="J40:M41"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="F44:I45"/>
-    <mergeCell ref="J44:M45"/>
-    <mergeCell ref="B46:E47"/>
-    <mergeCell ref="F46:I47"/>
-    <mergeCell ref="J46:M47"/>
-    <mergeCell ref="B48:E49"/>
-    <mergeCell ref="F48:I49"/>
-    <mergeCell ref="J48:M49"/>
-    <mergeCell ref="B50:E51"/>
-    <mergeCell ref="F50:I51"/>
-    <mergeCell ref="J50:M51"/>
-    <mergeCell ref="B53:M53"/>
-    <mergeCell ref="B54:E55"/>
-    <mergeCell ref="F54:I55"/>
-    <mergeCell ref="J54:M55"/>
-    <mergeCell ref="B56:E57"/>
-    <mergeCell ref="F56:I57"/>
-    <mergeCell ref="J56:M57"/>
-    <mergeCell ref="B58:E59"/>
-    <mergeCell ref="F58:I59"/>
-    <mergeCell ref="J58:M59"/>
-    <mergeCell ref="B60:E61"/>
-    <mergeCell ref="F60:I61"/>
-    <mergeCell ref="J60:M61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9383,60 +9388,60 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130">
+      <c r="B2" s="120">
         <v>1</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="126" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="131"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
     </row>
     <row r="4" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="131"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="123" t="s">
+      <c r="B4" s="121"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="126" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="131"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="122"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="119"/>
     </row>
     <row r="6" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="123" t="s">
+      <c r="B6" s="121"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="126" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="131"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="119"/>
     </row>
     <row r="8" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="132"/>
-      <c r="C8" s="135"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="23" t="s">
         <v>44</v>
       </c>
@@ -9445,14 +9450,14 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="118">
+      <c r="B9" s="128">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="126" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="25" t="s">
@@ -9460,17 +9465,17 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="122"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="123" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="127" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="25" t="s">
@@ -9478,38 +9483,38 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="123"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="121" t="s">
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="118" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="118">
+      <c r="B15" s="128">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="126" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="25" t="s">
@@ -9517,17 +9522,17 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="25" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="123" t="s">
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="127" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="25" t="s">
@@ -9535,118 +9540,118 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="123"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="118">
+      <c r="B19" s="128">
         <f>B15+1</f>
         <v>4</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="133" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="118"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="134"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="125"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="134"/>
     </row>
     <row r="22" spans="2:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="125"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="134"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="125"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="134"/>
     </row>
     <row r="24" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="126"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="135"/>
     </row>
     <row r="25" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="118">
+      <c r="B25" s="128">
         <v>6</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="120" t="s">
+      <c r="E25" s="126" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
     </row>
     <row r="27" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="123" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="120" t="s">
+      <c r="E27" s="126" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="79.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="122"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="119"/>
     </row>
     <row r="29" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="118">
+      <c r="B29" s="128">
         <v>7</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="123" t="s">
+      <c r="D29" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="123" t="s">
+      <c r="E29" s="127" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="118"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
     </row>
     <row r="31" spans="2:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="118"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="123" t="s">
+      <c r="B31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="127" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="26" t="s">
@@ -9654,33 +9659,33 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="79.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="123"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="118"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="123" t="s">
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="120" t="s">
+      <c r="E33" s="126" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="118"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="122"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="119"/>
     </row>
     <row r="35" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="118"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="123" t="s">
+      <c r="B35" s="128"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="127" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="25" t="s">
@@ -9688,99 +9693,133 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="118"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="123"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="25" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="118"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="123" t="s">
+      <c r="B37" s="128"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="120" t="s">
+      <c r="E37" s="126" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="118"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="122"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="119"/>
     </row>
     <row r="39" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="118">
+      <c r="B39" s="128">
         <v>8</v>
       </c>
-      <c r="C39" s="119" t="s">
+      <c r="C39" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="120" t="s">
+      <c r="D39" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="120" t="s">
+      <c r="E39" s="126" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="118"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="122"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="119"/>
     </row>
     <row r="41" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="118"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="120" t="s">
+      <c r="B41" s="128"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="126" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="79.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="118"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
     </row>
     <row r="43" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="118">
+      <c r="B43" s="128">
         <v>8</v>
       </c>
-      <c r="C43" s="119" t="s">
+      <c r="C43" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="120" t="s">
+      <c r="D43" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="120" t="s">
+      <c r="E43" s="126" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="118"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="122"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="119"/>
     </row>
     <row r="45" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="118"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="120" t="s">
+      <c r="B45" s="128"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="126" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="79.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="118"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="C2:C8"/>
@@ -9795,40 +9834,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
